--- a/sex-difference/risks.xlsx
+++ b/sex-difference/risks.xlsx
@@ -405,7 +405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -511,27 +511,27 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <f>B7/B4</f>
+        <f t="shared" ref="B8:G8" si="0">B7/B4</f>
         <v>0.11789266548570425</v>
       </c>
       <c r="C8">
-        <f>C7/C4</f>
+        <f t="shared" si="0"/>
         <v>9.2482910412129818E-2</v>
       </c>
       <c r="D8">
-        <f>D7/D4</f>
+        <f t="shared" si="0"/>
         <v>0.46348416934602532</v>
       </c>
       <c r="E8">
-        <f>E7/E4</f>
+        <f t="shared" si="0"/>
         <v>0.16020549313791441</v>
       </c>
       <c r="F8">
-        <f>F7/F4</f>
+        <f t="shared" si="0"/>
         <v>0.10339407770781286</v>
       </c>
       <c r="G8">
-        <f>G7/G4</f>
+        <f t="shared" si="0"/>
         <v>0.47565000673582108</v>
       </c>
       <c r="I8" t="s">
@@ -579,27 +579,27 @@
         <v>6</v>
       </c>
       <c r="B12">
-        <f>B11/B4</f>
+        <f t="shared" ref="B12:G12" si="1">B11/B4</f>
         <v>6.8590557869147487E-2</v>
       </c>
       <c r="C12">
-        <f>C11/C4</f>
+        <f t="shared" si="1"/>
         <v>5.5193254998777239E-2</v>
       </c>
       <c r="D12">
-        <f>D11/D4</f>
+        <f t="shared" si="1"/>
         <v>0.25080380759301202</v>
       </c>
       <c r="E12">
-        <f>E11/E4</f>
+        <f t="shared" si="1"/>
         <v>9.0695434677994999E-2</v>
       </c>
       <c r="F12">
-        <f>F11/F4</f>
+        <f t="shared" si="1"/>
         <v>6.1858421505555705E-2</v>
       </c>
       <c r="G12">
-        <f>G11/G4</f>
+        <f t="shared" si="1"/>
         <v>0.25081250841977637</v>
       </c>
     </row>
@@ -644,27 +644,27 @@
         <v>6</v>
       </c>
       <c r="B16">
-        <f>B15/B4</f>
+        <f t="shared" ref="B16:G16" si="2">B15/B4</f>
         <v>1.5590439628268031E-2</v>
       </c>
       <c r="C16">
-        <f>C15/C4</f>
+        <f t="shared" si="2"/>
         <v>6.5610042971433894E-3</v>
       </c>
       <c r="D16">
-        <f>D15/D4</f>
+        <f t="shared" si="2"/>
         <v>0.13839745315741958</v>
       </c>
       <c r="E16">
-        <f>E15/E4</f>
+        <f t="shared" si="2"/>
         <v>6.6604088403682482E-2</v>
       </c>
       <c r="F16">
-        <f>F15/F4</f>
+        <f t="shared" si="2"/>
         <v>2.9293775565521658E-2</v>
       </c>
       <c r="G16">
-        <f>G15/G4</f>
+        <f t="shared" si="2"/>
         <v>0.27376902869459785</v>
       </c>
     </row>
@@ -773,23 +773,23 @@
         <v>0.15000211531848562</v>
       </c>
       <c r="C25">
-        <f t="shared" ref="C25:G25" si="0">C24/C22</f>
+        <f t="shared" ref="C25:G25" si="3">C24/C22</f>
         <v>7.5908294187758532E-2</v>
       </c>
       <c r="D25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.40319218771712101</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.18473051833947873</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.5050124444506071E-2</v>
       </c>
       <c r="G25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.44182071583487154</v>
       </c>
     </row>

--- a/sex-difference/risks.xlsx
+++ b/sex-difference/risks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32600" windowHeight="21040" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="29">
   <si>
     <t>Total</t>
   </si>
@@ -453,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1044,10 +1044,439 @@
         <v>27</v>
       </c>
     </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>1556451</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
+      <c r="D28">
+        <v>1318915</v>
+      </c>
+      <c r="E28">
+        <f>ROUND(D28/B28*100,1)</f>
+        <v>84.7</v>
+      </c>
+      <c r="F28">
+        <v>237536</v>
+      </c>
+      <c r="G28">
+        <f>ROUND(F28/B28*100,1)</f>
+        <v>15.3</v>
+      </c>
+      <c r="I28">
+        <v>921847</v>
+      </c>
+      <c r="J28">
+        <v>100</v>
+      </c>
+      <c r="K28">
+        <v>858710</v>
+      </c>
+      <c r="L28">
+        <f>ROUND(K28/I28*100,1)</f>
+        <v>93.2</v>
+      </c>
+      <c r="M28">
+        <v>63137</v>
+      </c>
+      <c r="N28">
+        <f>ROUND(M28/I28*100,1)</f>
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <v>249352</v>
+      </c>
+      <c r="C29">
+        <f>ROUND(B29/B28*100,1)</f>
+        <v>16</v>
+      </c>
+      <c r="D29">
+        <v>136368</v>
+      </c>
+      <c r="E29">
+        <f>ROUND(D29/D28*100,1)</f>
+        <v>10.3</v>
+      </c>
+      <c r="F29">
+        <v>112984</v>
+      </c>
+      <c r="G29">
+        <f>ROUND(F29/F28*100,1)</f>
+        <v>47.6</v>
+      </c>
+      <c r="I29">
+        <v>108679</v>
+      </c>
+      <c r="J29">
+        <f>ROUND(I29/I28*100,1)</f>
+        <v>11.8</v>
+      </c>
+      <c r="K29">
+        <v>79416</v>
+      </c>
+      <c r="L29">
+        <f>ROUND(K29/K28*100,1)</f>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="M29">
+        <v>29263</v>
+      </c>
+      <c r="N29">
+        <f>ROUND(M29/M28*100,1)</f>
+        <v>46.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30">
+        <v>141163</v>
+      </c>
+      <c r="C30">
+        <f>ROUND(B30/B28*100,1)</f>
+        <v>9.1</v>
+      </c>
+      <c r="D30">
+        <v>81586</v>
+      </c>
+      <c r="E30">
+        <f>ROUND(D30/D28*100,1)</f>
+        <v>6.2</v>
+      </c>
+      <c r="F30">
+        <v>59577</v>
+      </c>
+      <c r="G30">
+        <f>ROUND(F30/F28*100,1)</f>
+        <v>25.1</v>
+      </c>
+      <c r="I30">
+        <v>63230</v>
+      </c>
+      <c r="J30">
+        <f>ROUND(I30/I28*100,1)</f>
+        <v>6.9</v>
+      </c>
+      <c r="K30">
+        <v>47395</v>
+      </c>
+      <c r="L30">
+        <f>ROUND(K30/K28*100,1)</f>
+        <v>5.5</v>
+      </c>
+      <c r="M30">
+        <v>15835</v>
+      </c>
+      <c r="N30">
+        <f>ROUND(M30/M28*100,1)</f>
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31">
+        <v>103666</v>
+      </c>
+      <c r="C31">
+        <f>ROUND(B31/B28*100,1)</f>
+        <v>6.7</v>
+      </c>
+      <c r="D31">
+        <v>38636</v>
+      </c>
+      <c r="E31">
+        <f>ROUND(D31/D28*100,1)</f>
+        <v>2.9</v>
+      </c>
+      <c r="F31">
+        <v>65030</v>
+      </c>
+      <c r="G31">
+        <f>ROUND(F31/F28*100,1)</f>
+        <v>27.4</v>
+      </c>
+      <c r="I31">
+        <v>14372</v>
+      </c>
+      <c r="J31">
+        <f>ROUND(I31/I28*100,1)</f>
+        <v>1.6</v>
+      </c>
+      <c r="K31">
+        <v>5634</v>
+      </c>
+      <c r="L31">
+        <f>ROUND(K31/K28*100,1)</f>
+        <v>0.7</v>
+      </c>
+      <c r="M31">
+        <v>8738</v>
+      </c>
+      <c r="N31">
+        <f>ROUND(M31/M28*100,1)</f>
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>1556451</v>
+      </c>
+      <c r="C34">
+        <v>100</v>
+      </c>
+      <c r="D34">
+        <v>1153928</v>
+      </c>
+      <c r="E34">
+        <f>ROUND(D34/B34*100,1)</f>
+        <v>74.099999999999994</v>
+      </c>
+      <c r="F34">
+        <v>402523</v>
+      </c>
+      <c r="G34">
+        <f>ROUND(F34/B34*100,1)</f>
+        <v>25.9</v>
+      </c>
+      <c r="I34">
+        <v>921847</v>
+      </c>
+      <c r="J34">
+        <v>100</v>
+      </c>
+      <c r="K34">
+        <v>713150</v>
+      </c>
+      <c r="L34">
+        <f>ROUND(K34/I34*100,1)</f>
+        <v>77.400000000000006</v>
+      </c>
+      <c r="M34">
+        <v>208697</v>
+      </c>
+      <c r="N34">
+        <f>ROUND(M34/I34*100,1)</f>
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36">
+        <v>287524</v>
+      </c>
+      <c r="C36">
+        <f>ROUND(B36/B34*100,1)</f>
+        <v>18.5</v>
+      </c>
+      <c r="D36">
+        <v>109681</v>
+      </c>
+      <c r="E36">
+        <f>ROUND(D36/D34*100,1)</f>
+        <v>9.5</v>
+      </c>
+      <c r="F36">
+        <v>177843</v>
+      </c>
+      <c r="G36">
+        <f>ROUND(F36/F34*100,1)</f>
+        <v>44.2</v>
+      </c>
+      <c r="I36">
+        <v>138279</v>
+      </c>
+      <c r="J36">
+        <f>ROUND(I36/I34*100,1)</f>
+        <v>15</v>
+      </c>
+      <c r="K36">
+        <v>54134</v>
+      </c>
+      <c r="L36">
+        <f>ROUND(K36/K34*100,1)</f>
+        <v>7.6</v>
+      </c>
+      <c r="M36">
+        <v>84145</v>
+      </c>
+      <c r="N36">
+        <f>ROUND(M36/M34*100,1)</f>
+        <v>40.299999999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37">
+        <f>(F36/F34)/(D36/D34)</f>
+        <v>4.6482918188373707</v>
+      </c>
+      <c r="G37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M37">
+        <f>(M36/M34)/(K36/K34)</f>
+        <v>5.3115695989667282</v>
+      </c>
+      <c r="N37" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="I1:N1"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="I26:N26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
